--- a/OnBoard/output/trust/catch/Catch_Trust_50.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_50.xlsx
@@ -1802,7 +1802,7 @@
         <v>0.051</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I35">
         <v>2.361058823529412</v>
@@ -2130,7 +2130,7 @@
         <v>3.252</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I43">
         <v>2.361058823529412</v>
@@ -2253,7 +2253,7 @@
         <v>0.607</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I46">
         <v>2.361058823529412</v>
